--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -27,10 +27,10 @@
     <t>Money</t>
   </si>
   <si>
-    <t>Idcustomer</t>
+    <t>nem chua ran loai vua dep</t>
   </si>
   <si>
-    <t>nem chua ran loai vua dep</t>
+    <t>IDcustomer</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>42015</v>
